--- a/medicine/Enfance/Le_Combat_de_l'épouvanteur/Le_Combat_de_l'épouvanteur.xlsx
+++ b/medicine/Enfance/Le_Combat_de_l'épouvanteur/Le_Combat_de_l'épouvanteur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Le_Combat_de_l%27%C3%A9pouvanteur</t>
+          <t>Le_Combat_de_l'épouvanteur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Combat de l'épouvanteur (titre original : The Spook's Battle) est le quatrième tome de la série L'Épouvanteur signée Joseph Delaney. Paru en 2007, il est précédé du Secret de l'épouvanteur et suivi de L'Erreur de l'épouvanteur.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Le_Combat_de_l%27%C3%A9pouvanteur</t>
+          <t>Le_Combat_de_l'épouvanteur</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cela fait déjà un an que Thomas Ward est l'apprenti de l'Épouvanteur. Il est revenu à Chipenden avec son maître, et s'entraîne avec Alice, dans le but de savoir se défendre contre une sorcière.
 Mais une catastrophe s'abat sur la famille de Tom. Forcé de s'aventurer à Pendle, il rencontre le père Stock, un autre apprenti de l'Épouvanteur converti en prêtre, qui les avertit d'un danger redoutable, peut-être bien le pire de tous les temps.
